--- a/biology/Zoologie/Croupion/Croupion.xlsx
+++ b/biology/Zoologie/Croupion/Croupion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'anatomie des oiseaux, le croupion (dérivé de croupe avec le suffixe -ion) est l'extrémité postérieure du corps, correspondant aux dernières vertèbres et supportant les plumes de la queue. Situé entre le dos et les tectrices sus-caudales, le croupion forme à l'arrière du synsacrum un tubercule musculo-glandulaire support des rectrices.
-Les motifs et couleurs du croupion peuvent être un indicateur de qualité de l'oiseau, une couleur vive étant corrélée à sa condition physique, son âge, son succès reproducteur ou la qualité de son territoire[1].
-En ornithologie, le croupion peut être un caractère différentiel utilisé dans la diagnose, notamment en ce qui concerne le dimorphisme sexuel[2].
+Les motifs et couleurs du croupion peuvent être un indicateur de qualité de l'oiseau, une couleur vive étant corrélée à sa condition physique, son âge, son succès reproducteur ou la qualité de son territoire.
+En ornithologie, le croupion peut être un caractère différentiel utilisé dans la diagnose, notamment en ce qui concerne le dimorphisme sexuel.
 </t>
         </is>
       </c>
